--- a/Nep.Project.Report/Excels/satisfy.xlsx
+++ b/Nep.Project.Report/Excels/satisfy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\NEP\Projects\Dev2019\Nep.Project.Report\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Works\NEP\Projects\Dev2019\Nep.Project.Report\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,9 +284,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,37 +596,37 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="85.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="57.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="6.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="85.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="57.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="20.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="20.25">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -676,7 +676,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="20.25">
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="20.25">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="15" t="s">
@@ -745,7 +745,7 @@
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="T4" s="15" t="s">
@@ -754,7 +754,7 @@
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="20.25">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -765,114 +765,114 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" ht="20.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="20.25">
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -896,7 +896,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" ht="20.25">
+    <row r="8" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -920,7 +920,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" ht="20.25">
+    <row r="9" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -944,7 +944,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" ht="20.25">
+    <row r="10" spans="1:24" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
